--- a/Base/Teams/Vikings/Target Depth Data.xlsx
+++ b/Base/Teams/Vikings/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="C3">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="D3">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="C3">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D3">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>5</v>

--- a/Base/Teams/Vikings/Target Depth Data.xlsx
+++ b/Base/Teams/Vikings/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="C2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="C2">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="D2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>3</v>

--- a/Base/Teams/Vikings/Target Depth Data.xlsx
+++ b/Base/Teams/Vikings/Target Depth Data.xlsx
@@ -450,13 +450,13 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="C3">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="D3">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E3">
         <v>54</v>
@@ -465,7 +465,7 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="C3">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="D3">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>9</v>

--- a/Base/Teams/Vikings/Target Depth Data.xlsx
+++ b/Base/Teams/Vikings/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="C2">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="D2">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="C2">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Vikings/Target Depth Data.xlsx
+++ b/Base/Teams/Vikings/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="C3">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="D3">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>427</v>
+        <v>465</v>
       </c>
       <c r="C3">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="D3">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>9</v>

--- a/Base/Teams/Vikings/Target Depth Data.xlsx
+++ b/Base/Teams/Vikings/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="C2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E2">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="C2">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="D2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
